--- a/natmiOut/OldD0/LR-pairs_lrc2p/Gnai2-Adra2b.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Gnai2-Adra2b.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>188.183681225872</v>
+        <v>203.7816646666667</v>
       </c>
       <c r="H2">
-        <v>188.183681225872</v>
+        <v>611.344994</v>
       </c>
       <c r="I2">
-        <v>0.6509159294994957</v>
+        <v>0.6667327591988204</v>
       </c>
       <c r="J2">
-        <v>0.6509159294994957</v>
+        <v>0.6667327591988205</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.29398188164111</v>
+        <v>23.18731733333334</v>
       </c>
       <c r="N2">
-        <v>2.29398188164111</v>
+        <v>69.56195200000001</v>
       </c>
       <c r="O2">
-        <v>0.3085408220404791</v>
+        <v>0.8148739324305957</v>
       </c>
       <c r="P2">
-        <v>0.3085408220404791</v>
+        <v>0.8148739324305956</v>
       </c>
       <c r="Q2">
-        <v>431.6899551526766</v>
+        <v>4725.150125340921</v>
       </c>
       <c r="R2">
-        <v>431.6899551526766</v>
+        <v>42526.35112806829</v>
       </c>
       <c r="S2">
-        <v>0.2008341359670169</v>
+        <v>0.5433031453686442</v>
       </c>
       <c r="T2">
-        <v>0.2008341359670169</v>
+        <v>0.5433031453686442</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>188.183681225872</v>
+        <v>203.7816646666667</v>
       </c>
       <c r="H3">
-        <v>188.183681225872</v>
+        <v>611.344994</v>
       </c>
       <c r="I3">
-        <v>0.6509159294994957</v>
+        <v>0.6667327591988204</v>
       </c>
       <c r="J3">
-        <v>0.6509159294994957</v>
+        <v>0.6667327591988205</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.14095611609376</v>
+        <v>5.267780333333334</v>
       </c>
       <c r="N3">
-        <v>5.14095611609376</v>
+        <v>15.803341</v>
       </c>
       <c r="O3">
-        <v>0.6914591779595209</v>
+        <v>0.1851260675694043</v>
       </c>
       <c r="P3">
-        <v>0.6914591779595209</v>
+        <v>0.1851260675694043</v>
       </c>
       <c r="Q3">
-        <v>967.444046947185</v>
+        <v>1073.477045424995</v>
       </c>
       <c r="R3">
-        <v>967.444046947185</v>
+        <v>9661.293408824955</v>
       </c>
       <c r="S3">
-        <v>0.4500817935324788</v>
+        <v>0.1234296138301762</v>
       </c>
       <c r="T3">
-        <v>0.4500817935324788</v>
+        <v>0.1234296138301762</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>62.7965473472026</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H4">
-        <v>62.7965473472026</v>
+        <v>189.421768</v>
       </c>
       <c r="I4">
-        <v>0.217209445152696</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="J4">
-        <v>0.217209445152696</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.29398188164111</v>
+        <v>23.18731733333334</v>
       </c>
       <c r="N4">
-        <v>2.29398188164111</v>
+        <v>69.56195200000001</v>
       </c>
       <c r="O4">
-        <v>0.3085408220404791</v>
+        <v>0.8148739324305957</v>
       </c>
       <c r="P4">
-        <v>0.3085408220404791</v>
+        <v>0.8148739324305956</v>
       </c>
       <c r="Q4">
-        <v>144.0541418441009</v>
+        <v>1464.060881485682</v>
       </c>
       <c r="R4">
-        <v>144.0541418441009</v>
+        <v>13176.54793337114</v>
       </c>
       <c r="S4">
-        <v>0.06701798076236919</v>
+        <v>0.1683393883416498</v>
       </c>
       <c r="T4">
-        <v>0.06701798076236919</v>
+        <v>0.1683393883416498</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>62.7965473472026</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H5">
-        <v>62.7965473472026</v>
+        <v>189.421768</v>
       </c>
       <c r="I5">
-        <v>0.217209445152696</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="J5">
-        <v>0.217209445152696</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.14095611609376</v>
+        <v>5.267780333333334</v>
       </c>
       <c r="N5">
-        <v>5.14095611609376</v>
+        <v>15.803341</v>
       </c>
       <c r="O5">
-        <v>0.6914591779595209</v>
+        <v>0.1851260675694043</v>
       </c>
       <c r="P5">
-        <v>0.6914591779595209</v>
+        <v>0.1851260675694043</v>
       </c>
       <c r="Q5">
-        <v>322.8342941541725</v>
+        <v>332.6107547252098</v>
       </c>
       <c r="R5">
-        <v>322.8342941541725</v>
+        <v>2993.496792526888</v>
       </c>
       <c r="S5">
-        <v>0.1501914643903269</v>
+        <v>0.03824396356350834</v>
       </c>
       <c r="T5">
-        <v>0.1501914643903269</v>
+        <v>0.03824396356350835</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>38.125741487561</v>
+        <v>38.719942</v>
       </c>
       <c r="H6">
-        <v>38.125741487561</v>
+        <v>116.159826</v>
       </c>
       <c r="I6">
-        <v>0.1318746253478083</v>
+        <v>0.1266838888960214</v>
       </c>
       <c r="J6">
-        <v>0.1318746253478083</v>
+        <v>0.1266838888960214</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.29398188164111</v>
+        <v>23.18731733333334</v>
       </c>
       <c r="N6">
-        <v>2.29398188164111</v>
+        <v>69.56195200000001</v>
       </c>
       <c r="O6">
-        <v>0.3085408220404791</v>
+        <v>0.8148739324305957</v>
       </c>
       <c r="P6">
-        <v>0.3085408220404791</v>
+        <v>0.8148739324305956</v>
       </c>
       <c r="Q6">
-        <v>87.45976019659771</v>
+        <v>897.8115822822614</v>
       </c>
       <c r="R6">
-        <v>87.45976019659771</v>
+        <v>8080.304240540352</v>
       </c>
       <c r="S6">
-        <v>0.04068870531109297</v>
+        <v>0.1032313987203016</v>
       </c>
       <c r="T6">
-        <v>0.04068870531109297</v>
+        <v>0.1032313987203016</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>38.125741487561</v>
+        <v>38.719942</v>
       </c>
       <c r="H7">
-        <v>38.125741487561</v>
+        <v>116.159826</v>
       </c>
       <c r="I7">
-        <v>0.1318746253478083</v>
+        <v>0.1266838888960214</v>
       </c>
       <c r="J7">
-        <v>0.1318746253478083</v>
+        <v>0.1266838888960214</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.14095611609376</v>
+        <v>5.267780333333334</v>
       </c>
       <c r="N7">
-        <v>5.14095611609376</v>
+        <v>15.803341</v>
       </c>
       <c r="O7">
-        <v>0.6914591779595209</v>
+        <v>0.1851260675694043</v>
       </c>
       <c r="P7">
-        <v>0.6914591779595209</v>
+        <v>0.1851260675694043</v>
       </c>
       <c r="Q7">
-        <v>196.0027638810863</v>
+        <v>203.9681489754073</v>
       </c>
       <c r="R7">
-        <v>196.0027638810863</v>
+        <v>1835.713340778666</v>
       </c>
       <c r="S7">
-        <v>0.09118592003671533</v>
+        <v>0.02345249017571977</v>
       </c>
       <c r="T7">
-        <v>0.09118592003671533</v>
+        <v>0.02345249017571977</v>
       </c>
     </row>
   </sheetData>
